--- a/database/Database_Dictionary.xlsx
+++ b/database/Database_Dictionary.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9630"/>
+    <workbookView windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablas" sheetId="1" r:id="rId1"/>
-    <sheet name="Columnas_Tablas" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables_Views" sheetId="1" r:id="rId1"/>
+    <sheet name="Columns" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="148">
   <si>
     <t>DATABASE_NAME</t>
   </si>
@@ -35,424 +35,430 @@
     <t>UBER_ANALISIS</t>
   </si>
   <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>CAT_LOCACION_DESCENSO</t>
+  </si>
+  <si>
+    <t>dbo</t>
+  </si>
+  <si>
+    <t>Catálogo final con la ubicación del final del viaje</t>
+  </si>
+  <si>
+    <t>CAT_LOCACION_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Catálogo final con la ubicación del inicio del viaje</t>
+  </si>
+  <si>
+    <t>CAT_PROVEEDOR</t>
+  </si>
+  <si>
+    <t>Catálogo final de los proveedores del viaje</t>
+  </si>
+  <si>
+    <t>CAT_TARIFA</t>
+  </si>
+  <si>
+    <t>Catálogo final de la tarifa del viaje</t>
+  </si>
+  <si>
+    <t>CAT_TIPO_PAGO</t>
+  </si>
+  <si>
+    <t>Catálogo final del tipo de pago del viaje</t>
+  </si>
+  <si>
+    <t>DIM_FCH</t>
+  </si>
+  <si>
+    <t>Tabla final dimensional de fechas del viaje</t>
+  </si>
+  <si>
+    <t>FACT_PAGO_VIAJE</t>
+  </si>
+  <si>
+    <t>Tabla final de las transacciones de los viajes</t>
+  </si>
+  <si>
+    <t>IM_CAT_LOCACION_DESCENSO</t>
+  </si>
+  <si>
+    <t>Catálogo de imagen con la ubicación del final del viaje</t>
+  </si>
+  <si>
+    <t>IM_CAT_LOCACION_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Catálogo de imagen con la ubicación del inicio del viaje</t>
+  </si>
+  <si>
+    <t>IM_CAT_PROVEEDOR</t>
+  </si>
+  <si>
+    <t>Catálogo de imagen de los proveedores del viaje</t>
+  </si>
+  <si>
+    <t>IM_CAT_TARIFA</t>
+  </si>
+  <si>
+    <t>Catálogo de imagen de la tarifa del viaje</t>
+  </si>
+  <si>
+    <t>IM_CAT_TIPO_PAGO</t>
+  </si>
+  <si>
+    <t>Catálogo de imagen del tipo de pago del viaje</t>
+  </si>
+  <si>
+    <t>IM_DIM_FCH</t>
+  </si>
+  <si>
+    <t>Tabla de imagen dimensional de fechas del viaje</t>
+  </si>
+  <si>
+    <t>IM_FACT_PAGO_VIAJE</t>
+  </si>
+  <si>
+    <t>Tabla de imagen de las transacciones de los viajes</t>
+  </si>
+  <si>
+    <t>TMP_FACT_PAGO_VIAJE</t>
+  </si>
+  <si>
+    <t>Tabla temporal de las transacciones de los viajes</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>VCAT_LOCACION_DESCENSO</t>
+  </si>
+  <si>
+    <t>Vista del catálogo final con la ubicación del final del viaje</t>
+  </si>
+  <si>
+    <t>VCAT_LOCACION_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Vista del catálogo final con la ubicación del inicio del viaje</t>
+  </si>
+  <si>
+    <t>VCAT_PROVEEDOR</t>
+  </si>
+  <si>
+    <t>Vista del catálogo final de los proveedores del viaje</t>
+  </si>
+  <si>
+    <t>VCAT_TARIFA</t>
+  </si>
+  <si>
+    <t>Vista del catálogo final de la tarifa del viaje</t>
+  </si>
+  <si>
+    <t>VCAT_TIPO_PAGO</t>
+  </si>
+  <si>
+    <t>Vista del catálogo final del tipo de pago del viaje</t>
+  </si>
+  <si>
+    <t>VDIM_FCH</t>
+  </si>
+  <si>
+    <t>Vista de la tabla final dimensional de fechas del viaje</t>
+  </si>
+  <si>
+    <t>VFACT_PAGO_VIAJE</t>
+  </si>
+  <si>
+    <t>Vista de la tabla final de las transacciones de los viajes</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>MAX_LENGTH</t>
+  </si>
+  <si>
     <t>TABLA</t>
   </si>
   <si>
-    <t>CAT_LOCACION_DESCENSO</t>
-  </si>
-  <si>
-    <t>dbo</t>
-  </si>
-  <si>
-    <t>Catálogo final con la ubicación del final del viaje</t>
-  </si>
-  <si>
-    <t>CAT_LOCACION_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Catálogo final con la ubicación del inicio del viaje</t>
-  </si>
-  <si>
-    <t>CAT_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>Catálogo final de los proveedores del viaje</t>
-  </si>
-  <si>
-    <t>CAT_TARIFA</t>
-  </si>
-  <si>
-    <t>Catálogo final de la tarifa del viaje</t>
-  </si>
-  <si>
-    <t>CAT_TIPO_PAGO</t>
-  </si>
-  <si>
-    <t>Catálogo final del tipo de pago del viaje</t>
-  </si>
-  <si>
-    <t>DIM_FCH</t>
-  </si>
-  <si>
-    <t>Tabla final dimensional de fechas del viaje</t>
-  </si>
-  <si>
-    <t>FACT_PAGO_VIAJE</t>
-  </si>
-  <si>
-    <t>Tabla final de las transacciones de los viajes</t>
-  </si>
-  <si>
-    <t>IM_CAT_LOCACION_DESCENSO</t>
-  </si>
-  <si>
-    <t>Catálogo de imagen con la ubicación del final del viaje</t>
-  </si>
-  <si>
-    <t>IM_CAT_LOCACION_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Catálogo de imagen con la ubicación del inicio del viaje</t>
-  </si>
-  <si>
-    <t>IM_CAT_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>Catálogo de imagen de los proveedores del viaje</t>
-  </si>
-  <si>
-    <t>IM_CAT_TARIFA</t>
-  </si>
-  <si>
-    <t>Catálogo de imagen de la tarifa del viaje</t>
-  </si>
-  <si>
-    <t>IM_CAT_TIPO_PAGO</t>
-  </si>
-  <si>
-    <t>Catálogo de imagen del tipo de pago del viaje</t>
-  </si>
-  <si>
-    <t>IM_DIM_FCH</t>
-  </si>
-  <si>
-    <t>Tabla de imagen dimensional de fechas del viaje</t>
-  </si>
-  <si>
-    <t>IM_FACT_PAGO_VIAJE</t>
-  </si>
-  <si>
-    <t>Tabla de imagen de las transacciones de los viajes</t>
-  </si>
-  <si>
-    <t>TMP_FACT_PAGO_VIAJE</t>
-  </si>
-  <si>
-    <t>Tabla temporal de las transacciones de los viajes</t>
+    <t>ID_LOCACION_DESCENSO</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ID de la ubicación del fin del viaje</t>
+  </si>
+  <si>
+    <t>LATITUD_DESCENSO</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Latitud del fin del viaje</t>
+  </si>
+  <si>
+    <t>LONGITUD_DESCENSO</t>
+  </si>
+  <si>
+    <t>Longitud del fin del viaje</t>
+  </si>
+  <si>
+    <t>ID_LOCACION_RECOGIDA</t>
+  </si>
+  <si>
+    <t>ID de la ubicación del inicio del viaje</t>
+  </si>
+  <si>
+    <t>LATITUD_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Latitud del inicio del viaje</t>
+  </si>
+  <si>
+    <t>LONGITUD_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Longitud del inicio del viaje</t>
+  </si>
+  <si>
+    <t>ID_PROVEEDOR</t>
+  </si>
+  <si>
+    <t>ID del proveedor del viaje</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Descripción del proveedor del viaje</t>
+  </si>
+  <si>
+    <t>ID_TARIFA</t>
+  </si>
+  <si>
+    <t>ID de la tarifa del viaje</t>
+  </si>
+  <si>
+    <t>TARIFA</t>
+  </si>
+  <si>
+    <t>Descripción de la tarifa del viaje</t>
+  </si>
+  <si>
+    <t>ID_TIPO_PAGO</t>
+  </si>
+  <si>
+    <t>ID del tipo de pago del viaje</t>
+  </si>
+  <si>
+    <t>TIPO_PAGO</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de pago del viaje</t>
+  </si>
+  <si>
+    <t>ID_FCH</t>
+  </si>
+  <si>
+    <t>ID de la fecha del viaje</t>
+  </si>
+  <si>
+    <t>FCH_HRA_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Fecha y hora del inicio del viaje</t>
+  </si>
+  <si>
+    <t>FCH_RECOGIDA</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Fecha del inicio del viaje</t>
+  </si>
+  <si>
+    <t>ANIO_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Anio del inicio del viaje</t>
+  </si>
+  <si>
+    <t>MES_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Mes del inicio del viaje</t>
+  </si>
+  <si>
+    <t>DIA_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Dia del inicio del viaje</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Número de día de la semana del inicio del viaje</t>
+  </si>
+  <si>
+    <t>HRA_HRA_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Hora completa del inicio del viaje</t>
+  </si>
+  <si>
+    <t>HRA_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Hora del incio del viaje</t>
+  </si>
+  <si>
+    <t>MIN_RECOGIDA</t>
+  </si>
+  <si>
+    <t>Minuto del inicio del viaje</t>
+  </si>
+  <si>
+    <t>FCH_HRA_DESCENSO</t>
+  </si>
+  <si>
+    <t>Fecha y hora del fin del viaje</t>
+  </si>
+  <si>
+    <t>FCH_DESCENSO</t>
+  </si>
+  <si>
+    <t>Fecha del fin del viaje</t>
+  </si>
+  <si>
+    <t>ANIO_DESCENSO</t>
+  </si>
+  <si>
+    <t>Anio del fin del viaje</t>
+  </si>
+  <si>
+    <t>MES_DESCENSO</t>
+  </si>
+  <si>
+    <t>Mes del fin del viaje</t>
+  </si>
+  <si>
+    <t>DIA_DESCENSO</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA_DESCENSO</t>
+  </si>
+  <si>
+    <t>Número de día de la semana del fin del viaje</t>
+  </si>
+  <si>
+    <t>HRA_HRA_DESCENSO</t>
+  </si>
+  <si>
+    <t>Hora completa del fin del viaje</t>
+  </si>
+  <si>
+    <t>HRA_DESCENSO</t>
+  </si>
+  <si>
+    <t>Hora del fin del viaje</t>
+  </si>
+  <si>
+    <t>MIN_DESCENSO</t>
+  </si>
+  <si>
+    <t>Minuto del fin del viaje</t>
+  </si>
+  <si>
+    <t>DURACION_VIAJE</t>
+  </si>
+  <si>
+    <t>Duración del viaje</t>
+  </si>
+  <si>
+    <t>ID_VIAJE</t>
+  </si>
+  <si>
+    <t>ID del viaje</t>
+  </si>
+  <si>
+    <t>NUM_PASAJEROS</t>
+  </si>
+  <si>
+    <t>Número de pasajeros</t>
+  </si>
+  <si>
+    <t>DISTANCIA_VIAJE</t>
+  </si>
+  <si>
+    <t>Distancia del viaje</t>
+  </si>
+  <si>
+    <t>FLG_TIENDA_AVANCE</t>
+  </si>
+  <si>
+    <t>Bandera de tienda de avance</t>
+  </si>
+  <si>
+    <t>MONTO_TARIFA</t>
+  </si>
+  <si>
+    <t>Monto de la tarifa</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>IMP_MTA</t>
+  </si>
+  <si>
+    <t>Impuesto de MTA</t>
+  </si>
+  <si>
+    <t>MONTO_PROPINA</t>
+  </si>
+  <si>
+    <t>Monto de la propina</t>
+  </si>
+  <si>
+    <t>MONTO_PEAJE</t>
+  </si>
+  <si>
+    <t>Monto del peaje</t>
+  </si>
+  <si>
+    <t>RECARGO_MEJORA</t>
+  </si>
+  <si>
+    <t>Recargo de mejora del viaje</t>
+  </si>
+  <si>
+    <t>MONTO_TOTAL</t>
+  </si>
+  <si>
+    <t>Monto total del viaje</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
   </si>
   <si>
     <t>VISTA</t>
-  </si>
-  <si>
-    <t>VCAT_LOCACION_DESCENSO</t>
-  </si>
-  <si>
-    <t>Vista del catálogo final con la ubicación del final del viaje</t>
-  </si>
-  <si>
-    <t>VCAT_LOCACION_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Vista del catálogo final con la ubicación del inicio del viaje</t>
-  </si>
-  <si>
-    <t>VCAT_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>Vista del catálogo final de los proveedores del viaje</t>
-  </si>
-  <si>
-    <t>VCAT_TARIFA</t>
-  </si>
-  <si>
-    <t>Vista del catálogo final de la tarifa del viaje</t>
-  </si>
-  <si>
-    <t>VCAT_TIPO_PAGO</t>
-  </si>
-  <si>
-    <t>Vista del catálogo final del tipo de pago del viaje</t>
-  </si>
-  <si>
-    <t>VDIM_FCH</t>
-  </si>
-  <si>
-    <t>Vista de la tabla final dimensional de fechas del viaje</t>
-  </si>
-  <si>
-    <t>VFACT_PAGO_VIAJE</t>
-  </si>
-  <si>
-    <t>Vista de la tabla final de las transacciones de los viajes</t>
-  </si>
-  <si>
-    <t>COLUMN_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>MAX_LENGTH</t>
-  </si>
-  <si>
-    <t>ID_LOCACION_DESCENSO</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ID de la ubicación del fin del viaje</t>
-  </si>
-  <si>
-    <t>LATITUD_DESCENSO</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Latitud del fin del viaje</t>
-  </si>
-  <si>
-    <t>LONGITUD_DESCENSO</t>
-  </si>
-  <si>
-    <t>Longitud del fin del viaje</t>
-  </si>
-  <si>
-    <t>ID_LOCACION_RECOGIDA</t>
-  </si>
-  <si>
-    <t>ID de la ubicación del inicio del viaje</t>
-  </si>
-  <si>
-    <t>LATITUD_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Latitud del inicio del viaje</t>
-  </si>
-  <si>
-    <t>LONGITUD_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Longitud del inicio del viaje</t>
-  </si>
-  <si>
-    <t>ID_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>ID del proveedor del viaje</t>
-  </si>
-  <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>Descripción del proveedor del viaje</t>
-  </si>
-  <si>
-    <t>ID_TARIFA</t>
-  </si>
-  <si>
-    <t>ID de la tarifa del viaje</t>
-  </si>
-  <si>
-    <t>TARIFA</t>
-  </si>
-  <si>
-    <t>Descripción de la tarifa del viaje</t>
-  </si>
-  <si>
-    <t>ID_TIPO_PAGO</t>
-  </si>
-  <si>
-    <t>ID del tipo de pago del viaje</t>
-  </si>
-  <si>
-    <t>TIPO_PAGO</t>
-  </si>
-  <si>
-    <t>Descripción del tipo de pago del viaje</t>
-  </si>
-  <si>
-    <t>ID_FCH</t>
-  </si>
-  <si>
-    <t>ID de la fecha del viaje</t>
-  </si>
-  <si>
-    <t>FCH_HRA_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Fecha y hora del inicio del viaje</t>
-  </si>
-  <si>
-    <t>FCH_RECOGIDA</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Fecha del inicio del viaje</t>
-  </si>
-  <si>
-    <t>ANIO_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Anio del inicio del viaje</t>
-  </si>
-  <si>
-    <t>MES_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Mes del inicio del viaje</t>
-  </si>
-  <si>
-    <t>DIA_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Dia del inicio del viaje</t>
-  </si>
-  <si>
-    <t>DIA_SEMANA_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Número de día de la semana del inicio del viaje</t>
-  </si>
-  <si>
-    <t>HRA_HRA_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Hora completa del inicio del viaje</t>
-  </si>
-  <si>
-    <t>HRA_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Hora del incio del viaje</t>
-  </si>
-  <si>
-    <t>MIN_RECOGIDA</t>
-  </si>
-  <si>
-    <t>Minuto del inicio del viaje</t>
-  </si>
-  <si>
-    <t>FCH_HRA_DESCENSO</t>
-  </si>
-  <si>
-    <t>Fecha y hora del fin del viaje</t>
-  </si>
-  <si>
-    <t>FCH_DESCENSO</t>
-  </si>
-  <si>
-    <t>Fecha del fin del viaje</t>
-  </si>
-  <si>
-    <t>ANIO_DESCENSO</t>
-  </si>
-  <si>
-    <t>Anio del fin del viaje</t>
-  </si>
-  <si>
-    <t>MES_DESCENSO</t>
-  </si>
-  <si>
-    <t>Mes del fin del viaje</t>
-  </si>
-  <si>
-    <t>DIA_DESCENSO</t>
-  </si>
-  <si>
-    <t>DIA_SEMANA_DESCENSO</t>
-  </si>
-  <si>
-    <t>Número de día de la semana del fin del viaje</t>
-  </si>
-  <si>
-    <t>HRA_HRA_DESCENSO</t>
-  </si>
-  <si>
-    <t>Hora completa del fin del viaje</t>
-  </si>
-  <si>
-    <t>HRA_DESCENSO</t>
-  </si>
-  <si>
-    <t>Hora del fin del viaje</t>
-  </si>
-  <si>
-    <t>MIN_DESCENSO</t>
-  </si>
-  <si>
-    <t>Minuto del fin del viaje</t>
-  </si>
-  <si>
-    <t>DURACION_VIAJE</t>
-  </si>
-  <si>
-    <t>Duración del viaje</t>
-  </si>
-  <si>
-    <t>ID_VIAJE</t>
-  </si>
-  <si>
-    <t>ID del viaje</t>
-  </si>
-  <si>
-    <t>NUM_PASAJEROS</t>
-  </si>
-  <si>
-    <t>Número de pasajeros</t>
-  </si>
-  <si>
-    <t>DISTANCIA_VIAJE</t>
-  </si>
-  <si>
-    <t>Distancia del viaje</t>
-  </si>
-  <si>
-    <t>FLG_TIENDA_AVANCE</t>
-  </si>
-  <si>
-    <t>Bandera de tienda de avance</t>
-  </si>
-  <si>
-    <t>MONTO_TARIFA</t>
-  </si>
-  <si>
-    <t>Monto de la tarifa</t>
-  </si>
-  <si>
-    <t>EXTRA</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>IMP_MTA</t>
-  </si>
-  <si>
-    <t>Impuesto de MTA</t>
-  </si>
-  <si>
-    <t>MONTO_PROPINA</t>
-  </si>
-  <si>
-    <t>Monto de la propina</t>
-  </si>
-  <si>
-    <t>MONTO_PEAJE</t>
-  </si>
-  <si>
-    <t>Monto del peaje</t>
-  </si>
-  <si>
-    <t>RECARGO_MEJORA</t>
-  </si>
-  <si>
-    <t>Recargo de mejora del viaje</t>
-  </si>
-  <si>
-    <t>MONTO_TOTAL</t>
-  </si>
-  <si>
-    <t>Monto total del viaje</t>
-  </si>
-  <si>
-    <t>nvarchar</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2041,7 +2047,7 @@
   <sheetPr/>
   <dimension ref="B2:I147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2087,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -2096,16 +2102,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -2113,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2122,16 +2128,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2139,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -2148,16 +2154,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2165,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -2174,16 +2180,16 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -2191,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -2200,16 +2206,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2217,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2226,16 +2232,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2243,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -2252,16 +2258,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2269,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -2278,16 +2284,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2295,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -2304,16 +2310,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -2321,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -2330,16 +2336,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -2347,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -2356,16 +2362,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -2373,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -2382,16 +2388,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1">
         <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2399,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -2408,16 +2414,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2425,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -2434,16 +2440,16 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1">
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2451,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -2460,16 +2466,16 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2477,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -2486,16 +2492,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2503,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -2512,16 +2518,16 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2529,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -2538,16 +2544,16 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2555,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -2564,16 +2570,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2581,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -2590,16 +2596,16 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="1">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -2607,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
@@ -2616,16 +2622,16 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -2633,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
@@ -2642,16 +2648,16 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -2659,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
@@ -2668,16 +2674,16 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="1">
         <v>30</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -2685,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
@@ -2694,16 +2700,16 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2711,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -2720,16 +2726,16 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2737,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
@@ -2746,16 +2752,16 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2763,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -2772,16 +2778,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2789,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
@@ -2798,16 +2804,16 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2815,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
@@ -2824,16 +2830,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1">
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -2841,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
@@ -2850,16 +2856,16 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H32" s="1">
         <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2867,7 +2873,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
@@ -2876,16 +2882,16 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33" s="1">
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2893,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
@@ -2902,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1">
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2919,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
@@ -2928,16 +2934,16 @@
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2945,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -2954,16 +2960,16 @@
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2971,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -2980,16 +2986,16 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2997,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
@@ -3006,16 +3012,16 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H38" s="1">
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -3023,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -3032,16 +3038,16 @@
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" s="1">
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -3049,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
@@ -3058,16 +3064,16 @@
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H40" s="1">
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -3075,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -3084,16 +3090,16 @@
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H41" s="1">
         <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -3101,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
@@ -3110,16 +3116,16 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H42" s="1">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -3127,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
@@ -3136,16 +3142,16 @@
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -3153,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
@@ -3162,16 +3168,16 @@
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1">
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -3179,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
@@ -3188,16 +3194,16 @@
         <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -3205,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
@@ -3214,16 +3220,16 @@
         <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -3231,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
@@ -3240,16 +3246,16 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -3257,7 +3263,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
@@ -3266,16 +3272,16 @@
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -3283,7 +3289,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
@@ -3292,16 +3298,16 @@
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -3309,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>20</v>
@@ -3318,16 +3324,16 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -3335,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
@@ -3344,16 +3350,16 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -3361,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -3370,16 +3376,16 @@
         <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3387,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -3396,16 +3402,16 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" s="1">
         <v>8</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -3413,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
@@ -3422,16 +3428,16 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -3439,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>24</v>
@@ -3448,16 +3454,16 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H55" s="1">
         <v>8</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -3465,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
@@ -3474,16 +3480,16 @@
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56" s="1">
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -3491,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
@@ -3500,16 +3506,16 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H57" s="1">
         <v>-1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -3517,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>28</v>
@@ -3526,16 +3532,16 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H58" s="1">
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3543,7 +3549,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>28</v>
@@ -3552,16 +3558,16 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H59" s="1">
         <v>-1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -3569,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
@@ -3578,16 +3584,16 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H60" s="1">
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -3595,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>30</v>
@@ -3604,16 +3610,16 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H61" s="1">
         <v>-1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -3621,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>32</v>
@@ -3630,16 +3636,16 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H62" s="1">
         <v>-1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -3647,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>32</v>
@@ -3656,16 +3662,16 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H63" s="1">
         <v>-1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -3673,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>34</v>
@@ -3682,16 +3688,16 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H64" s="1">
         <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -3699,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>34</v>
@@ -3708,16 +3714,16 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H65" s="1">
         <v>4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -3725,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
@@ -3734,16 +3740,16 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H66" s="1">
         <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3751,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -3760,16 +3766,16 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H67" s="1">
         <v>4</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3777,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
@@ -3786,16 +3792,16 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H68" s="1">
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3803,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
@@ -3812,16 +3818,16 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H69" s="1">
         <v>4</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3829,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
@@ -3838,16 +3844,16 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H70" s="1">
         <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3855,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>34</v>
@@ -3864,16 +3870,16 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3881,7 +3887,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -3890,16 +3896,16 @@
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H72" s="1">
         <v>-1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3907,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>34</v>
@@ -3916,16 +3922,16 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -3933,7 +3939,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>34</v>
@@ -3942,16 +3948,16 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H74" s="1">
         <v>8</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -3959,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>34</v>
@@ -3968,16 +3974,16 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H75" s="1">
         <v>8</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3985,7 +3991,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>34</v>
@@ -3994,16 +4000,16 @@
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -4011,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>34</v>
@@ -4020,16 +4026,16 @@
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -4037,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>34</v>
@@ -4046,16 +4052,16 @@
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H78" s="1">
         <v>8</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -4063,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>34</v>
@@ -4072,16 +4078,16 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -4089,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>36</v>
@@ -4098,16 +4104,16 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H80" s="1">
         <v>4</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -4115,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>36</v>
@@ -4124,16 +4130,16 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H81" s="1">
         <v>-1</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -4141,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>36</v>
@@ -4150,16 +4156,16 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H82" s="1">
         <v>-1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -4167,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
@@ -4176,16 +4182,16 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H83" s="1">
         <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -4193,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -4202,16 +4208,16 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H84" s="1">
         <v>8</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -4219,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>36</v>
@@ -4228,16 +4234,16 @@
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H85" s="1">
         <v>8</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -4245,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>36</v>
@@ -4254,16 +4260,16 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H86" s="1">
         <v>8</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -4271,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>36</v>
@@ -4280,16 +4286,16 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H87" s="1">
         <v>8</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -4297,7 +4303,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>36</v>
@@ -4306,16 +4312,16 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H88" s="1">
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4323,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>36</v>
@@ -4332,16 +4338,16 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H89" s="1">
         <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4349,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>36</v>
@@ -4358,16 +4364,16 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -4375,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>36</v>
@@ -4384,16 +4390,16 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H91" s="1">
         <v>-1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -4401,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>36</v>
@@ -4410,16 +4416,16 @@
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H92" s="1">
         <v>8</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -4427,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>36</v>
@@ -4436,16 +4442,16 @@
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -4453,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -4462,16 +4468,16 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H94" s="1">
         <v>8</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -4479,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>36</v>
@@ -4488,16 +4494,16 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H95" s="1">
         <v>8</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4505,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>36</v>
@@ -4514,16 +4520,16 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H96" s="1">
         <v>8</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -4531,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>36</v>
@@ -4540,16 +4546,16 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H97" s="1">
         <v>8</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -4557,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>36</v>
@@ -4566,16 +4572,16 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H98" s="1">
         <v>8</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:9">
@@ -4583,7 +4589,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>39</v>
@@ -4592,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H99" s="1">
         <v>4</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -4609,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>39</v>
@@ -4618,16 +4624,16 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H100" s="1">
         <v>8</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -4635,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>39</v>
@@ -4644,16 +4650,16 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H101" s="1">
         <v>8</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -4661,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>41</v>
@@ -4670,16 +4676,16 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H102" s="1">
         <v>4</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -4687,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>41</v>
@@ -4696,16 +4702,16 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H103" s="1">
         <v>8</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="2:9">
@@ -4713,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>41</v>
@@ -4722,16 +4728,16 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H104" s="1">
         <v>8</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="2:9">
@@ -4739,7 +4745,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>43</v>
@@ -4748,16 +4754,16 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H105" s="1">
         <v>4</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -4765,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>43</v>
@@ -4774,16 +4780,16 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H106" s="1">
         <v>50</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -4791,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>45</v>
@@ -4800,16 +4806,16 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H107" s="1">
         <v>4</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="2:9">
@@ -4817,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>45</v>
@@ -4826,16 +4832,16 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H108" s="1">
         <v>50</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="2:9">
@@ -4843,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>47</v>
@@ -4852,16 +4858,16 @@
         <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H109" s="1">
         <v>4</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:9">
@@ -4869,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>47</v>
@@ -4878,16 +4884,16 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H110" s="1">
         <v>50</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="2:9">
@@ -4895,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>49</v>
@@ -4904,16 +4910,16 @@
         <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H111" s="1">
         <v>4</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4921,7 +4927,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>49</v>
@@ -4930,16 +4936,16 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H112" s="1">
         <v>30</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="2:9">
@@ -4947,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>49</v>
@@ -4956,16 +4962,16 @@
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H113" s="1">
         <v>3</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="2:9">
@@ -4973,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>49</v>
@@ -4982,16 +4988,16 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H114" s="1">
         <v>4</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="2:9">
@@ -4999,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>49</v>
@@ -5008,16 +5014,16 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H115" s="1">
         <v>4</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -5025,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>49</v>
@@ -5034,16 +5040,16 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H116" s="1">
         <v>4</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="2:9">
@@ -5051,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>49</v>
@@ -5060,16 +5066,16 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H117" s="1">
         <v>4</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -5077,7 +5083,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>49</v>
@@ -5086,16 +5092,16 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H118" s="1">
         <v>12</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -5103,7 +5109,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>49</v>
@@ -5112,16 +5118,16 @@
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H119" s="1">
         <v>4</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="2:9">
@@ -5129,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>49</v>
@@ -5138,16 +5144,16 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H120" s="1">
         <v>4</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -5155,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>49</v>
@@ -5164,16 +5170,16 @@
         <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H121" s="1">
         <v>30</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="2:9">
@@ -5181,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>49</v>
@@ -5190,16 +5196,16 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H122" s="1">
         <v>3</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -5207,7 +5213,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>49</v>
@@ -5216,16 +5222,16 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H123" s="1">
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -5233,7 +5239,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>49</v>
@@ -5242,16 +5248,16 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H124" s="1">
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -5259,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>49</v>
@@ -5268,16 +5274,16 @@
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H125" s="1">
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="2:9">
@@ -5285,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>49</v>
@@ -5294,16 +5300,16 @@
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H126" s="1">
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="2:9">
@@ -5311,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>49</v>
@@ -5320,16 +5326,16 @@
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H127" s="1">
         <v>12</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="2:9">
@@ -5337,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>49</v>
@@ -5346,16 +5352,16 @@
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H128" s="1">
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="2:9">
@@ -5363,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>49</v>
@@ -5372,16 +5378,16 @@
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H129" s="1">
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="2:9">
@@ -5389,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>49</v>
@@ -5398,16 +5404,16 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H130" s="1">
         <v>12</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="2:9">
@@ -5415,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>51</v>
@@ -5424,16 +5430,16 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H131" s="1">
         <v>4</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="2:9">
@@ -5441,7 +5447,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>51</v>
@@ -5450,16 +5456,16 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H132" s="1">
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="2:9">
@@ -5467,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>51</v>
@@ -5476,16 +5482,16 @@
         <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H133" s="1">
         <v>4</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="2:9">
@@ -5493,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>51</v>
@@ -5502,16 +5508,16 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H134" s="1">
         <v>4</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="2:9">
@@ -5519,7 +5525,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>51</v>
@@ -5528,16 +5534,16 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H135" s="1">
         <v>4</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="2:9">
@@ -5545,7 +5551,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>51</v>
@@ -5554,16 +5560,16 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H136" s="1">
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="2:9">
@@ -5571,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -5580,16 +5586,16 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H137" s="1">
         <v>4</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="2:9">
@@ -5597,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>51</v>
@@ -5606,16 +5612,16 @@
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H138" s="1">
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="2:9">
@@ -5623,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>51</v>
@@ -5632,16 +5638,16 @@
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H139" s="1">
         <v>8</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="2:9">
@@ -5649,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>51</v>
@@ -5658,16 +5664,16 @@
         <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H140" s="1">
         <v>5</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="2:9">
@@ -5675,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>51</v>
@@ -5684,16 +5690,16 @@
         <v>8</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H141" s="1">
         <v>8</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="2:9">
@@ -5701,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>51</v>
@@ -5710,16 +5716,16 @@
         <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H142" s="1">
         <v>8</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="2:9">
@@ -5727,7 +5733,7 @@
         <v>5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>51</v>
@@ -5736,16 +5742,16 @@
         <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H143" s="1">
         <v>8</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="2:9">
@@ -5753,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>51</v>
@@ -5762,16 +5768,16 @@
         <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H144" s="1">
         <v>8</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="2:9">
@@ -5779,7 +5785,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>51</v>
@@ -5788,16 +5794,16 @@
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H145" s="1">
         <v>8</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="2:9">
@@ -5805,7 +5811,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>51</v>
@@ -5814,16 +5820,16 @@
         <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H146" s="1">
         <v>8</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="2:9">
@@ -5831,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>51</v>
@@ -5840,16 +5846,16 @@
         <v>8</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H147" s="1">
         <v>8</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/database/Database_Dictionary.xlsx
+++ b/database/Database_Dictionary.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9630" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Tables_Views" sheetId="1" r:id="rId1"/>
     <sheet name="Columns" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$B$2:$I$147</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="149">
   <si>
     <t>DATABASE_NAME</t>
   </si>
@@ -44,91 +47,91 @@
     <t>dbo</t>
   </si>
   <si>
-    <t>Catálogo final con la ubicación del final del viaje</t>
+    <t>Final catalog with the location of the end of the trip</t>
   </si>
   <si>
     <t>CAT_LOCACION_RECOGIDA</t>
   </si>
   <si>
-    <t>Catálogo final con la ubicación del inicio del viaje</t>
+    <t>Final catalog with the location of the start of the trip</t>
   </si>
   <si>
     <t>CAT_PROVEEDOR</t>
   </si>
   <si>
-    <t>Catálogo final de los proveedores del viaje</t>
+    <t>Final catalogue of travel suppliers</t>
   </si>
   <si>
     <t>CAT_TARIFA</t>
   </si>
   <si>
-    <t>Catálogo final de la tarifa del viaje</t>
+    <t>Final catalogue of the trip fare</t>
   </si>
   <si>
     <t>CAT_TIPO_PAGO</t>
   </si>
   <si>
-    <t>Catálogo final del tipo de pago del viaje</t>
+    <t>Final catalog of the type of payment of the trip</t>
   </si>
   <si>
     <t>DIM_FCH</t>
   </si>
   <si>
-    <t>Tabla final dimensional de fechas del viaje</t>
+    <t>Final dimensional table of travel dates</t>
   </si>
   <si>
     <t>FACT_PAGO_VIAJE</t>
   </si>
   <si>
-    <t>Tabla final de las transacciones de los viajes</t>
+    <t>Final table of travel transactions</t>
   </si>
   <si>
     <t>IM_CAT_LOCACION_DESCENSO</t>
   </si>
   <si>
-    <t>Catálogo de imagen con la ubicación del final del viaje</t>
+    <t>Image catalog with the location of the end of the trip</t>
   </si>
   <si>
     <t>IM_CAT_LOCACION_RECOGIDA</t>
   </si>
   <si>
-    <t>Catálogo de imagen con la ubicación del inicio del viaje</t>
+    <t>Image catalog with the location of the start of the trip</t>
   </si>
   <si>
     <t>IM_CAT_PROVEEDOR</t>
   </si>
   <si>
-    <t>Catálogo de imagen de los proveedores del viaje</t>
+    <t>Image catalog of travel suppliers</t>
   </si>
   <si>
     <t>IM_CAT_TARIFA</t>
   </si>
   <si>
-    <t>Catálogo de imagen de la tarifa del viaje</t>
+    <t>Image catalog of the trip fare</t>
   </si>
   <si>
     <t>IM_CAT_TIPO_PAGO</t>
   </si>
   <si>
-    <t>Catálogo de imagen del tipo de pago del viaje</t>
+    <t>Image catalog of the type of payment of the trip</t>
   </si>
   <si>
     <t>IM_DIM_FCH</t>
   </si>
   <si>
-    <t>Tabla de imagen dimensional de fechas del viaje</t>
+    <t>Dimensional image table of travel dates</t>
   </si>
   <si>
     <t>IM_FACT_PAGO_VIAJE</t>
   </si>
   <si>
-    <t>Tabla de imagen de las transacciones de los viajes</t>
+    <t>Image table of travel transactions</t>
   </si>
   <si>
     <t>TMP_FACT_PAGO_VIAJE</t>
   </si>
   <si>
-    <t>Tabla temporal de las transacciones de los viajes</t>
+    <t>Temporary table of travel transactions</t>
   </si>
   <si>
     <t>VIEW</t>
@@ -137,43 +140,43 @@
     <t>VCAT_LOCACION_DESCENSO</t>
   </si>
   <si>
-    <t>Vista del catálogo final con la ubicación del final del viaje</t>
+    <t>View of the final catalog with the location of the end of the trip</t>
   </si>
   <si>
     <t>VCAT_LOCACION_RECOGIDA</t>
   </si>
   <si>
-    <t>Vista del catálogo final con la ubicación del inicio del viaje</t>
+    <t>View of the final catalog with the location of the start of the trip</t>
   </si>
   <si>
     <t>VCAT_PROVEEDOR</t>
   </si>
   <si>
-    <t>Vista del catálogo final de los proveedores del viaje</t>
+    <t>View of the final catalogue of travel suppliers</t>
   </si>
   <si>
     <t>VCAT_TARIFA</t>
   </si>
   <si>
-    <t>Vista del catálogo final de la tarifa del viaje</t>
+    <t>View of the final catalogue of the travel fare</t>
   </si>
   <si>
     <t>VCAT_TIPO_PAGO</t>
   </si>
   <si>
-    <t>Vista del catálogo final del tipo de pago del viaje</t>
+    <t>View of the final catalog of the type of payment of the trip</t>
   </si>
   <si>
     <t>VDIM_FCH</t>
   </si>
   <si>
-    <t>Vista de la tabla final dimensional de fechas del viaje</t>
+    <t>View of the final dimensional table of travel dates</t>
   </si>
   <si>
     <t>VFACT_PAGO_VIAJE</t>
   </si>
   <si>
-    <t>Vista de la tabla final de las transacciones de los viajes</t>
+    <t>View of the final table of travel transactions</t>
   </si>
   <si>
     <t>COLUMN_NAME</t>
@@ -185,16 +188,13 @@
     <t>MAX_LENGTH</t>
   </si>
   <si>
-    <t>TABLA</t>
-  </si>
-  <si>
     <t>ID_LOCACION_DESCENSO</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>ID de la ubicación del fin del viaje</t>
+    <t>ID of the end of trip location</t>
   </si>
   <si>
     <t>LATITUD_DESCENSO</t>
@@ -203,37 +203,37 @@
     <t>float</t>
   </si>
   <si>
-    <t>Latitud del fin del viaje</t>
+    <t>Latitude of the end of the trip</t>
   </si>
   <si>
     <t>LONGITUD_DESCENSO</t>
   </si>
   <si>
-    <t>Longitud del fin del viaje</t>
+    <t>Length of the end of the trip</t>
   </si>
   <si>
     <t>ID_LOCACION_RECOGIDA</t>
   </si>
   <si>
-    <t>ID de la ubicación del inicio del viaje</t>
+    <t>Id of the start of the trip location</t>
   </si>
   <si>
     <t>LATITUD_RECOGIDA</t>
   </si>
   <si>
-    <t>Latitud del inicio del viaje</t>
+    <t>Latitude of the start of the trip</t>
   </si>
   <si>
     <t>LONGITUD_RECOGIDA</t>
   </si>
   <si>
-    <t>Longitud del inicio del viaje</t>
+    <t>Length of the start of the trip</t>
   </si>
   <si>
     <t>ID_PROVEEDOR</t>
   </si>
   <si>
-    <t>ID del proveedor del viaje</t>
+    <t>Id of the trip provider</t>
   </si>
   <si>
     <t>PROVEEDOR</t>
@@ -242,43 +242,43 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>Descripción del proveedor del viaje</t>
+    <t>Description of the trip provider</t>
   </si>
   <si>
     <t>ID_TARIFA</t>
   </si>
   <si>
-    <t>ID de la tarifa del viaje</t>
+    <t>Id of the trip fare</t>
   </si>
   <si>
     <t>TARIFA</t>
   </si>
   <si>
-    <t>Descripción de la tarifa del viaje</t>
+    <t>Description of the trip fare</t>
   </si>
   <si>
     <t>ID_TIPO_PAGO</t>
   </si>
   <si>
-    <t>ID del tipo de pago del viaje</t>
+    <t>ID of the payment type of the trip</t>
   </si>
   <si>
     <t>TIPO_PAGO</t>
   </si>
   <si>
-    <t>Descripción del tipo de pago del viaje</t>
+    <t>Description of the payment type of the trip</t>
   </si>
   <si>
     <t>ID_FCH</t>
   </si>
   <si>
-    <t>ID de la fecha del viaje</t>
+    <t>Id of the travel date</t>
   </si>
   <si>
     <t>FCH_HRA_RECOGIDA</t>
   </si>
   <si>
-    <t>Fecha y hora del inicio del viaje</t>
+    <t>Date and time of the start of the trip</t>
   </si>
   <si>
     <t>FCH_RECOGIDA</t>
@@ -287,136 +287,142 @@
     <t>date</t>
   </si>
   <si>
-    <t>Fecha del inicio del viaje</t>
+    <t>Date of the start of the trip</t>
   </si>
   <si>
     <t>ANIO_RECOGIDA</t>
   </si>
   <si>
-    <t>Anio del inicio del viaje</t>
+    <t>Year of the start of the trip</t>
   </si>
   <si>
     <t>MES_RECOGIDA</t>
   </si>
   <si>
-    <t>Mes del inicio del viaje</t>
+    <t>Month of the start of the trip</t>
   </si>
   <si>
     <t>DIA_RECOGIDA</t>
   </si>
   <si>
-    <t>Dia del inicio del viaje</t>
+    <t>Day of the start of the trip</t>
   </si>
   <si>
     <t>DIA_SEMANA_RECOGIDA</t>
   </si>
   <si>
-    <t>Número de día de la semana del inicio del viaje</t>
+    <t>Day number of the week of the start of the trip</t>
   </si>
   <si>
     <t>HRA_HRA_RECOGIDA</t>
   </si>
   <si>
-    <t>Hora completa del inicio del viaje</t>
+    <t>Full time of the start of the trip</t>
   </si>
   <si>
     <t>HRA_RECOGIDA</t>
   </si>
   <si>
-    <t>Hora del incio del viaje</t>
+    <t>Hour of the start of the trip</t>
   </si>
   <si>
     <t>MIN_RECOGIDA</t>
   </si>
   <si>
-    <t>Minuto del inicio del viaje</t>
+    <t>Minute of the start of the trip</t>
   </si>
   <si>
     <t>FCH_HRA_DESCENSO</t>
   </si>
   <si>
-    <t>Fecha y hora del fin del viaje</t>
+    <t>Date and time of the end of the trip</t>
   </si>
   <si>
     <t>FCH_DESCENSO</t>
   </si>
   <si>
-    <t>Fecha del fin del viaje</t>
+    <t>Date of the end of the trip</t>
   </si>
   <si>
     <t>ANIO_DESCENSO</t>
   </si>
   <si>
-    <t>Anio del fin del viaje</t>
+    <t>Year of the end of the trip</t>
   </si>
   <si>
     <t>MES_DESCENSO</t>
   </si>
   <si>
-    <t>Mes del fin del viaje</t>
+    <t>Month of the end of the trip</t>
   </si>
   <si>
     <t>DIA_DESCENSO</t>
   </si>
   <si>
+    <t>Day of the end of the trip</t>
+  </si>
+  <si>
     <t>DIA_SEMANA_DESCENSO</t>
   </si>
   <si>
-    <t>Número de día de la semana del fin del viaje</t>
+    <t>Day number of the week of the end of the trip</t>
   </si>
   <si>
     <t>HRA_HRA_DESCENSO</t>
   </si>
   <si>
-    <t>Hora completa del fin del viaje</t>
+    <t>Full time of the end of the trip</t>
   </si>
   <si>
     <t>HRA_DESCENSO</t>
   </si>
   <si>
-    <t>Hora del fin del viaje</t>
+    <t>Hour of the end of the trip</t>
   </si>
   <si>
     <t>MIN_DESCENSO</t>
   </si>
   <si>
-    <t>Minuto del fin del viaje</t>
+    <t>Minute of the end of the trip</t>
   </si>
   <si>
     <t>DURACION_VIAJE</t>
   </si>
   <si>
-    <t>Duración del viaje</t>
+    <t>Duration of the trip</t>
   </si>
   <si>
     <t>ID_VIAJE</t>
   </si>
   <si>
-    <t>ID del viaje</t>
+    <t>ID of the trip</t>
+  </si>
+  <si>
+    <t>ID of the travel provider</t>
   </si>
   <si>
     <t>NUM_PASAJEROS</t>
   </si>
   <si>
-    <t>Número de pasajeros</t>
+    <t>Number of passengers</t>
   </si>
   <si>
     <t>DISTANCIA_VIAJE</t>
   </si>
   <si>
-    <t>Distancia del viaje</t>
+    <t>Travel distance</t>
   </si>
   <si>
     <t>FLG_TIENDA_AVANCE</t>
   </si>
   <si>
-    <t>Bandera de tienda de avance</t>
+    <t>Advance store flag</t>
   </si>
   <si>
     <t>MONTO_TARIFA</t>
   </si>
   <si>
-    <t>Monto de la tarifa</t>
+    <t>Fare amount</t>
   </si>
   <si>
     <t>EXTRA</t>
@@ -428,37 +434,37 @@
     <t>IMP_MTA</t>
   </si>
   <si>
-    <t>Impuesto de MTA</t>
+    <t>MTA Tax</t>
   </si>
   <si>
     <t>MONTO_PROPINA</t>
   </si>
   <si>
-    <t>Monto de la propina</t>
+    <t>Gratuity amount</t>
   </si>
   <si>
     <t>MONTO_PEAJE</t>
   </si>
   <si>
-    <t>Monto del peaje</t>
+    <t>Toll amount</t>
   </si>
   <si>
     <t>RECARGO_MEJORA</t>
   </si>
   <si>
-    <t>Recargo de mejora del viaje</t>
+    <t>Travel upgrade surcharge</t>
   </si>
   <si>
     <t>MONTO_TOTAL</t>
   </si>
   <si>
-    <t>Monto total del viaje</t>
+    <t>Total trip amount</t>
   </si>
   <si>
     <t>nvarchar</t>
   </si>
   <si>
-    <t>VISTA</t>
+    <t>Fee amount</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F25"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1645,21 +1651,38 @@
     <col min="8" max="8" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1670,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1687,13 +1710,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1704,13 +1727,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1721,13 +1744,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1738,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1755,13 +1778,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1772,13 +1795,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1789,13 +1812,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1806,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1823,13 +1846,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1840,13 +1863,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1857,13 +1880,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1874,13 +1897,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1891,13 +1914,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1905,16 +1928,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1925,13 +1948,13 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1942,13 +1965,13 @@
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -1959,13 +1982,13 @@
         <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -1976,13 +1999,13 @@
         <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -1993,13 +2016,13 @@
         <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2010,29 +2033,12 @@
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2047,18 +2053,19 @@
   <sheetPr/>
   <dimension ref="B2:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="18.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="31.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="16.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="25.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="47.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2093,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -2102,16 +2109,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -2119,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2128,16 +2135,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2145,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -2154,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2171,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -2180,16 +2187,16 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -2197,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -2206,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2223,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2232,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2249,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -2258,16 +2265,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2275,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -2284,16 +2291,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2301,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -2310,16 +2317,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -2327,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -2336,16 +2343,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -2353,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -2362,16 +2369,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -2379,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -2388,16 +2395,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1">
         <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2405,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -2414,16 +2421,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2431,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -2440,16 +2447,16 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1">
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2457,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -2466,16 +2473,16 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2483,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -2492,16 +2499,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2509,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -2518,16 +2525,16 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2535,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -2544,16 +2551,16 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2561,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -2570,16 +2577,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2587,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -2596,16 +2603,16 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -2613,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
@@ -2622,16 +2629,16 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -2639,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
@@ -2648,16 +2655,16 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="1">
-        <v>4</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -2665,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
@@ -2674,16 +2681,16 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1">
         <v>30</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -2691,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
@@ -2700,16 +2707,16 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2717,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -2726,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="1">
-        <v>4</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2743,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
@@ -2752,16 +2759,16 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="1">
-        <v>4</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2769,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -2778,16 +2785,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="1">
-        <v>4</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2795,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
@@ -2807,7 +2814,7 @@
         <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
@@ -2821,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
@@ -2833,7 +2840,7 @@
         <v>116</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1">
         <v>12</v>
@@ -2847,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
@@ -2859,7 +2866,7 @@
         <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="1">
         <v>4</v>
@@ -2873,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
@@ -2885,7 +2892,7 @@
         <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="1">
         <v>4</v>
@@ -2899,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
@@ -2911,7 +2918,7 @@
         <v>122</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>12</v>
@@ -2925,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
@@ -2937,7 +2944,7 @@
         <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
@@ -2951,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -2960,16 +2967,16 @@
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2977,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -2986,16 +2993,16 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1">
-        <v>4</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -3003,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
@@ -3012,16 +3019,16 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1">
-        <v>4</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -3029,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -3038,16 +3045,16 @@
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="1">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -3055,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
@@ -3064,16 +3071,16 @@
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H40" s="1">
-        <v>4</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -3081,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -3090,16 +3097,16 @@
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="1">
-        <v>4</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -3107,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
@@ -3116,16 +3123,16 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" s="1">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -3133,7 +3140,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
@@ -3142,16 +3149,16 @@
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -3159,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
@@ -3168,16 +3175,16 @@
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" s="1">
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -3185,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
@@ -3194,16 +3201,16 @@
         <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -3211,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
@@ -3220,16 +3227,16 @@
         <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -3237,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
@@ -3246,16 +3253,16 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -3263,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
@@ -3272,16 +3279,16 @@
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -3289,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
@@ -3298,16 +3305,16 @@
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -3315,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>20</v>
@@ -3324,16 +3331,16 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -3341,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
@@ -3350,16 +3357,16 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -3367,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>22</v>
@@ -3376,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H52" s="1">
-        <v>8</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3393,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -3402,16 +3409,16 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="1">
-        <v>8</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -3419,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
@@ -3428,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="1">
-        <v>8</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -3445,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>24</v>
@@ -3454,16 +3461,16 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="1">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" s="1">
-        <v>8</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -3471,7 +3478,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
@@ -3480,16 +3487,16 @@
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -3497,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
@@ -3506,16 +3513,16 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H57" s="1">
         <v>-1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -3523,7 +3530,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>28</v>
@@ -3532,16 +3539,16 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1">
+        <v>4</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="1">
-        <v>4</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3549,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>28</v>
@@ -3558,16 +3565,16 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H59" s="1">
         <v>-1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -3575,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
@@ -3584,16 +3591,16 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="1">
-        <v>4</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -3601,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>30</v>
@@ -3610,16 +3617,16 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H61" s="1">
         <v>-1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -3627,7 +3634,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>32</v>
@@ -3636,16 +3643,16 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H62" s="1">
         <v>-1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -3653,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>32</v>
@@ -3662,16 +3669,16 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H63" s="1">
         <v>-1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -3679,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>34</v>
@@ -3688,16 +3695,16 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H64" s="1">
         <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -3705,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>34</v>
@@ -3714,16 +3721,16 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="1">
-        <v>4</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -3731,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
@@ -3740,16 +3747,16 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H66" s="1">
-        <v>4</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3757,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -3766,16 +3773,16 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67" s="1">
-        <v>4</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3783,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
@@ -3792,16 +3799,16 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H68" s="1">
-        <v>4</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3809,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
@@ -3818,16 +3825,16 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H69" s="1">
-        <v>4</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3835,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
@@ -3844,16 +3851,16 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H70" s="1">
         <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3861,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>34</v>
@@ -3870,16 +3877,16 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3887,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -3896,16 +3903,16 @@
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H72" s="1">
         <v>-1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3913,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>34</v>
@@ -3922,16 +3929,16 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -3939,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>34</v>
@@ -3948,16 +3955,16 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" s="1">
         <v>8</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -3965,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>34</v>
@@ -3974,16 +3981,16 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" s="1">
         <v>8</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3991,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>34</v>
@@ -4000,16 +4007,16 @@
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -4017,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>34</v>
@@ -4026,16 +4033,16 @@
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -4043,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>34</v>
@@ -4052,16 +4059,16 @@
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" s="1">
         <v>8</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -4069,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>34</v>
@@ -4078,16 +4085,16 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -4095,7 +4102,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>36</v>
@@ -4104,16 +4111,16 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H80" s="1">
         <v>4</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -4121,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>36</v>
@@ -4130,16 +4137,16 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H81" s="1">
         <v>-1</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -4147,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>36</v>
@@ -4156,16 +4163,16 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H82" s="1">
         <v>-1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -4173,7 +4180,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
@@ -4182,16 +4189,16 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" s="1">
-        <v>4</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -4199,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -4208,16 +4215,16 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="1">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H84" s="1">
-        <v>8</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -4225,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>36</v>
@@ -4234,16 +4241,16 @@
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H85" s="1">
-        <v>8</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -4251,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>36</v>
@@ -4260,16 +4267,16 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H86" s="1">
-        <v>8</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -4277,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>36</v>
@@ -4286,16 +4293,16 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H87" s="1">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H87" s="1">
-        <v>8</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -4303,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>36</v>
@@ -4312,16 +4319,16 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="1">
+        <v>4</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H88" s="1">
-        <v>4</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4329,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>36</v>
@@ -4338,16 +4345,16 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H89" s="1">
         <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4355,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>36</v>
@@ -4364,16 +4371,16 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -4381,7 +4388,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>36</v>
@@ -4390,16 +4397,16 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H91" s="1">
         <v>-1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -4407,7 +4414,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>36</v>
@@ -4416,16 +4423,16 @@
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H92" s="1">
         <v>8</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -4433,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>36</v>
@@ -4442,16 +4449,16 @@
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -4459,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -4468,16 +4475,16 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H94" s="1">
         <v>8</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -4485,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>36</v>
@@ -4494,16 +4501,16 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H95" s="1">
         <v>8</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4511,7 +4518,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>36</v>
@@ -4520,16 +4527,16 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H96" s="1">
         <v>8</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -4537,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>36</v>
@@ -4546,16 +4553,16 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H97" s="1">
         <v>8</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -4563,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>36</v>
@@ -4572,16 +4579,16 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H98" s="1">
         <v>8</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:9">
@@ -4589,7 +4596,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>39</v>
@@ -4598,16 +4605,16 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="1">
+        <v>4</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H99" s="1">
-        <v>4</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -4615,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>39</v>
@@ -4624,16 +4631,16 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H100" s="1">
-        <v>8</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -4641,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>39</v>
@@ -4650,16 +4657,16 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" s="1">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H101" s="1">
-        <v>8</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -4667,7 +4674,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>41</v>
@@ -4676,16 +4683,16 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="1">
+        <v>4</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="1">
-        <v>4</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -4693,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>41</v>
@@ -4702,16 +4709,16 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H103" s="1">
-        <v>8</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="104" spans="2:9">
@@ -4719,7 +4726,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>41</v>
@@ -4728,16 +4735,16 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H104" s="1">
+        <v>8</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H104" s="1">
-        <v>8</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="105" spans="2:9">
@@ -4745,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>43</v>
@@ -4754,16 +4761,16 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="1">
+        <v>4</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="1">
-        <v>4</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -4771,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>43</v>
@@ -4780,16 +4787,16 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H106" s="1">
         <v>50</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -4797,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>45</v>
@@ -4806,16 +4813,16 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="1">
+        <v>4</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H107" s="1">
-        <v>4</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="108" spans="2:9">
@@ -4823,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>45</v>
@@ -4832,16 +4839,16 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H108" s="1">
         <v>50</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="2:9">
@@ -4849,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>47</v>
@@ -4858,16 +4865,16 @@
         <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="1">
+        <v>4</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H109" s="1">
-        <v>4</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:9">
@@ -4875,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>47</v>
@@ -4884,16 +4891,16 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H110" s="1">
         <v>50</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:9">
@@ -4901,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>49</v>
@@ -4910,16 +4917,16 @@
         <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="1">
-        <v>4</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4927,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>49</v>
@@ -4936,16 +4943,16 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H112" s="1">
         <v>30</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="2:9">
@@ -4953,7 +4960,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>49</v>
@@ -4962,16 +4969,16 @@
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H113" s="1">
         <v>3</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="2:9">
@@ -4979,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>49</v>
@@ -4988,16 +4995,16 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="1">
+        <v>4</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" s="1">
-        <v>4</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="115" spans="2:9">
@@ -5005,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>49</v>
@@ -5014,16 +5021,16 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="1">
+        <v>4</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H115" s="1">
-        <v>4</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -5031,7 +5038,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>49</v>
@@ -5040,16 +5047,16 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="1">
+        <v>4</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H116" s="1">
-        <v>4</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="117" spans="2:9">
@@ -5057,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>49</v>
@@ -5066,16 +5073,16 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="1">
+        <v>4</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H117" s="1">
-        <v>4</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -5083,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>49</v>
@@ -5092,16 +5099,16 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H118" s="1">
         <v>12</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -5109,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>49</v>
@@ -5118,16 +5125,16 @@
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" s="1">
+        <v>4</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H119" s="1">
-        <v>4</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="120" spans="2:9">
@@ -5135,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>49</v>
@@ -5144,16 +5151,16 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H120" s="1">
+        <v>4</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H120" s="1">
-        <v>4</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -5161,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>49</v>
@@ -5170,16 +5177,16 @@
         <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H121" s="1">
         <v>30</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="2:9">
@@ -5187,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>49</v>
@@ -5196,16 +5203,16 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H122" s="1">
         <v>3</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -5213,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>49</v>
@@ -5222,16 +5229,16 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" s="1">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H123" s="1">
-        <v>4</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -5239,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>49</v>
@@ -5248,16 +5255,16 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H124" s="1">
-        <v>4</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -5265,7 +5272,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>49</v>
@@ -5274,16 +5281,16 @@
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1">
+        <v>4</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H125" s="1">
-        <v>4</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="126" spans="2:9">
@@ -5291,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>49</v>
@@ -5303,7 +5310,7 @@
         <v>114</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H126" s="1">
         <v>4</v>
@@ -5317,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>49</v>
@@ -5329,7 +5336,7 @@
         <v>116</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H127" s="1">
         <v>12</v>
@@ -5343,7 +5350,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>49</v>
@@ -5355,7 +5362,7 @@
         <v>118</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H128" s="1">
         <v>4</v>
@@ -5369,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>49</v>
@@ -5381,7 +5388,7 @@
         <v>120</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H129" s="1">
         <v>4</v>
@@ -5395,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>49</v>
@@ -5407,7 +5414,7 @@
         <v>122</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H130" s="1">
         <v>12</v>
@@ -5421,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>51</v>
@@ -5433,7 +5440,7 @@
         <v>124</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H131" s="1">
         <v>4</v>
@@ -5447,7 +5454,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>51</v>
@@ -5456,16 +5463,16 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H132" s="1">
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="2:9">
@@ -5473,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>51</v>
@@ -5482,16 +5489,16 @@
         <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H133" s="1">
+        <v>4</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H133" s="1">
-        <v>4</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="134" spans="2:9">
@@ -5499,7 +5506,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>51</v>
@@ -5508,16 +5515,16 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" s="1">
+        <v>4</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H134" s="1">
-        <v>4</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="135" spans="2:9">
@@ -5525,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>51</v>
@@ -5534,16 +5541,16 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H135" s="1">
-        <v>4</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="136" spans="2:9">
@@ -5551,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>51</v>
@@ -5560,16 +5567,16 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H136" s="1">
+        <v>4</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H136" s="1">
-        <v>4</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="137" spans="2:9">
@@ -5577,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -5586,16 +5593,16 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="1">
+        <v>4</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H137" s="1">
-        <v>4</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="138" spans="2:9">
@@ -5603,7 +5610,7 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>51</v>
@@ -5612,16 +5619,16 @@
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H138" s="1">
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="2:9">
@@ -5629,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>51</v>
@@ -5638,16 +5645,16 @@
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H139" s="1">
         <v>8</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="2:9">
@@ -5655,7 +5662,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>51</v>
@@ -5664,16 +5671,16 @@
         <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H140" s="1">
         <v>5</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="2:9">
@@ -5681,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>51</v>
@@ -5690,16 +5697,16 @@
         <v>8</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H141" s="1">
         <v>8</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="2:9">
@@ -5707,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>51</v>
@@ -5716,16 +5723,16 @@
         <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H142" s="1">
         <v>8</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="2:9">
@@ -5733,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>51</v>
@@ -5742,16 +5749,16 @@
         <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H143" s="1">
         <v>8</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="2:9">
@@ -5759,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>51</v>
@@ -5768,16 +5775,16 @@
         <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H144" s="1">
         <v>8</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="2:9">
@@ -5785,7 +5792,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>51</v>
@@ -5794,16 +5801,16 @@
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H145" s="1">
         <v>8</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:9">
@@ -5811,7 +5818,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>51</v>
@@ -5820,16 +5827,16 @@
         <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H146" s="1">
         <v>8</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="2:9">
@@ -5837,7 +5844,7 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>51</v>
@@ -5846,19 +5853,22 @@
         <v>8</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H147" s="1">
         <v>8</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I147">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/database/Database_Dictionary.xlsx
+++ b/database/Database_Dictionary.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Columns" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$B$2:$I$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$B$2:$I$154</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="165">
   <si>
     <t>DATABASE_NAME</t>
   </si>
@@ -134,6 +134,12 @@
     <t>Temporary table of travel transactions</t>
   </si>
   <si>
+    <t>DIM_LOG_CARGA</t>
+  </si>
+  <si>
+    <t>Dimensional table of the load log</t>
+  </si>
+  <si>
     <t>VIEW</t>
   </si>
   <si>
@@ -462,6 +468,48 @@
   </si>
   <si>
     <t>nvarchar</t>
+  </si>
+  <si>
+    <t>FCH_LOG</t>
+  </si>
+  <si>
+    <t>Log date</t>
+  </si>
+  <si>
+    <t>ID_PROCESO</t>
+  </si>
+  <si>
+    <t>ID of the process</t>
+  </si>
+  <si>
+    <t>NOM_ARCHIVO</t>
+  </si>
+  <si>
+    <t>File name to upload</t>
+  </si>
+  <si>
+    <t>REGISTROS_NOM_ARCHIVO</t>
+  </si>
+  <si>
+    <t>Number of records in the file</t>
+  </si>
+  <si>
+    <t>NOM_TABLA</t>
+  </si>
+  <si>
+    <t>Table of the table to load</t>
+  </si>
+  <si>
+    <t>REGISTROS_INSERTADOS_TABLA</t>
+  </si>
+  <si>
+    <t>Number of records loaded into the table</t>
+  </si>
+  <si>
+    <t>COMENTARIO</t>
+  </si>
+  <si>
+    <t>Comment about upload</t>
   </si>
   <si>
     <t>Fee amount</t>
@@ -1635,7 +1683,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,16 +1976,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1945,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
@@ -1962,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>43</v>
@@ -1979,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>45</v>
@@ -1996,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>47</v>
@@ -2013,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>49</v>
@@ -2030,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -2040,6 +2088,23 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2116,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I147"/>
+  <dimension ref="B2:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,7 +2128,7 @@
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="31.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="25.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="32.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="14.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="47.2857142857143" customWidth="1"/>
@@ -2083,13 +2148,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -2109,16 +2174,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -2135,16 +2200,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2161,16 +2226,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="1">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2187,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -2213,16 +2278,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2239,16 +2304,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2265,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2291,16 +2356,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2317,16 +2382,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -2343,16 +2408,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -2369,16 +2434,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -2395,16 +2460,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1">
         <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2421,16 +2486,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2447,16 +2512,16 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1">
         <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2473,16 +2538,16 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2499,16 +2564,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2525,16 +2590,16 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2551,16 +2616,16 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2577,16 +2642,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2603,16 +2668,16 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -2629,16 +2694,16 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -2655,16 +2720,16 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -2681,16 +2746,16 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1">
         <v>30</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -2707,16 +2772,16 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2733,16 +2798,16 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2759,16 +2824,16 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2785,16 +2850,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2811,16 +2876,16 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2837,16 +2902,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1">
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -2863,16 +2928,16 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1">
         <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2889,16 +2954,16 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H33" s="1">
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2915,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" s="1">
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2941,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2967,16 +3032,16 @@
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H36" s="1">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2993,16 +3058,16 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -3019,16 +3084,16 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H38" s="1">
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -3045,16 +3110,16 @@
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H39" s="1">
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -3071,16 +3136,16 @@
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H40" s="1">
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -3097,16 +3162,16 @@
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H41" s="1">
         <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -3123,16 +3188,16 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H42" s="1">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -3149,16 +3214,16 @@
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H43" s="1">
         <v>8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -3175,16 +3240,16 @@
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H44" s="1">
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -3201,16 +3266,16 @@
         <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -3227,16 +3292,16 @@
         <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H46" s="1">
         <v>8</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -3253,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1">
         <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -3279,16 +3344,16 @@
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1">
         <v>8</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -3305,16 +3370,16 @@
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H49" s="1">
         <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -3331,16 +3396,16 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H50" s="1">
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -3357,16 +3422,16 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H51" s="1">
         <v>8</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -3383,16 +3448,16 @@
         <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3409,16 +3474,16 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H53" s="1">
         <v>8</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -3435,16 +3500,16 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -3461,16 +3526,16 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H55" s="1">
         <v>8</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -3487,16 +3552,16 @@
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H56" s="1">
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -3513,16 +3578,16 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H57" s="1">
         <v>-1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -3539,16 +3604,16 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H58" s="1">
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3565,16 +3630,16 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H59" s="1">
         <v>-1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -3591,16 +3656,16 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H60" s="1">
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -3617,16 +3682,16 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H61" s="1">
         <v>-1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -3643,16 +3708,16 @@
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H62" s="1">
         <v>-1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -3669,16 +3734,16 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H63" s="1">
         <v>-1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -3695,16 +3760,16 @@
         <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H64" s="1">
         <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -3721,16 +3786,16 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H65" s="1">
         <v>4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -3747,16 +3812,16 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H66" s="1">
         <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3773,16 +3838,16 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H67" s="1">
         <v>4</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3799,16 +3864,16 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H68" s="1">
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3825,16 +3890,16 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H69" s="1">
         <v>4</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3851,16 +3916,16 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H70" s="1">
         <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3877,16 +3942,16 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3903,16 +3968,16 @@
         <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H72" s="1">
         <v>-1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3929,16 +3994,16 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H73" s="1">
         <v>8</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -3955,16 +4020,16 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H74" s="1">
         <v>8</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -3981,16 +4046,16 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H75" s="1">
         <v>8</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -4007,16 +4072,16 @@
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -4033,16 +4098,16 @@
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -4059,16 +4124,16 @@
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H78" s="1">
         <v>8</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -4085,16 +4150,16 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H79" s="1">
         <v>8</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -4111,16 +4176,16 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H80" s="1">
         <v>4</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -4137,16 +4202,16 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H81" s="1">
         <v>-1</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -4163,16 +4228,16 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H82" s="1">
         <v>-1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -4189,16 +4254,16 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H83" s="1">
         <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -4215,16 +4280,16 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H84" s="1">
         <v>8</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -4241,16 +4306,16 @@
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H85" s="1">
         <v>8</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -4267,16 +4332,16 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H86" s="1">
         <v>8</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -4293,16 +4358,16 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H87" s="1">
         <v>8</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -4319,16 +4384,16 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H88" s="1">
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4345,16 +4410,16 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H89" s="1">
         <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4371,16 +4436,16 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -4397,16 +4462,16 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H91" s="1">
         <v>-1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -4423,16 +4488,16 @@
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H92" s="1">
         <v>8</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -4449,16 +4514,16 @@
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H93" s="1">
         <v>8</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -4475,16 +4540,16 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H94" s="1">
         <v>8</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -4501,16 +4566,16 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H95" s="1">
         <v>8</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4527,16 +4592,16 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H96" s="1">
         <v>8</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -4553,16 +4618,16 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H97" s="1">
         <v>8</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -4579,16 +4644,16 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H98" s="1">
         <v>8</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="2:9">
@@ -4596,25 +4661,25 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="H99" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -4622,25 +4687,25 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H100" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -4648,25 +4713,25 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H101" s="1">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -4674,25 +4739,25 @@
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H102" s="1">
         <v>4</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -4700,25 +4765,25 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H103" s="1">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:9">
@@ -4726,25 +4791,25 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H104" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:9">
@@ -4752,25 +4817,25 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -4778,25 +4843,25 @@
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H106" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -4804,25 +4869,25 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H107" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="2:9">
@@ -4830,25 +4895,25 @@
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H108" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="2:9">
@@ -4856,25 +4921,25 @@
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H109" s="1">
         <v>4</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:9">
@@ -4882,25 +4947,25 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H110" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="2:9">
@@ -4908,25 +4973,25 @@
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H111" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4934,25 +4999,25 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112" s="1">
+        <v>4</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H112" s="1">
-        <v>30</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="113" spans="2:9">
@@ -4960,25 +5025,25 @@
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H113" s="1">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="2:9">
@@ -4986,25 +5051,25 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H114" s="1">
         <v>4</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="2:9">
@@ -5012,25 +5077,25 @@
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H115" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -5038,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>49</v>
@@ -5047,16 +5112,16 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H116" s="1">
         <v>4</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="2:9">
@@ -5064,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>49</v>
@@ -5073,16 +5138,16 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H117" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -5090,25 +5155,25 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H118" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -5116,25 +5181,25 @@
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H119" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="2:9">
@@ -5142,25 +5207,25 @@
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H120" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -5168,25 +5233,25 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H121" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="2:9">
@@ -5194,25 +5259,25 @@
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H122" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -5220,25 +5285,25 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H123" s="1">
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -5246,25 +5311,25 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H124" s="1">
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -5272,25 +5337,25 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H125" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="2:9">
@@ -5298,25 +5363,25 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H126" s="1">
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="2:9">
@@ -5324,25 +5389,25 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H127" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="2:9">
@@ -5350,25 +5415,25 @@
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H128" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="2:9">
@@ -5376,25 +5441,25 @@
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H129" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="2:9">
@@ -5402,25 +5467,25 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H130" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="2:9">
@@ -5428,7 +5493,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>51</v>
@@ -5437,16 +5502,16 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H131" s="1">
         <v>4</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="2:9">
@@ -5454,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>51</v>
@@ -5463,16 +5528,16 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H132" s="1">
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="2:9">
@@ -5480,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>51</v>
@@ -5489,16 +5554,16 @@
         <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H133" s="1">
         <v>4</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="2:9">
@@ -5506,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>51</v>
@@ -5515,16 +5580,16 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H134" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="2:9">
@@ -5532,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>51</v>
@@ -5541,16 +5606,16 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H135" s="1">
         <v>4</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="2:9">
@@ -5558,7 +5623,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>51</v>
@@ -5567,16 +5632,16 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H136" s="1">
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="2:9">
@@ -5584,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>51</v>
@@ -5593,16 +5658,16 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H137" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="2:9">
@@ -5610,25 +5675,25 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" s="1">
+        <v>4</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H138" s="1">
-        <v>4</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="139" spans="2:9">
@@ -5636,25 +5701,25 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H139" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="2:9">
@@ -5662,25 +5727,25 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H140" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="2:9">
@@ -5688,25 +5753,25 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H141" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="2:9">
@@ -5714,25 +5779,25 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H142" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="2:9">
@@ -5740,25 +5805,25 @@
         <v>5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="G143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" s="1">
+        <v>4</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H143" s="1">
-        <v>8</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="144" spans="2:9">
@@ -5766,25 +5831,25 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H144" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="2:9">
@@ -5792,25 +5857,25 @@
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H145" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="2:9">
@@ -5818,25 +5883,25 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H146" s="1">
         <v>8</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="2:9">
@@ -5844,29 +5909,211 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="1">
+        <v>5</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H148" s="1">
+        <v>8</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" s="1">
+        <v>8</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="1">
+        <v>8</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" s="1">
+        <v>8</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H152" s="1">
+        <v>8</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H147" s="1">
-        <v>8</v>
-      </c>
-      <c r="I147" s="1" t="s">
+      <c r="G153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" s="1">
+        <v>8</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H154" s="1">
+        <v>8</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:I147">
+  <autoFilter ref="B2:I154">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
